--- a/test.xlsx
+++ b/test.xlsx
@@ -24,9 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="1">
   <si>
-    <t>225_20171017</t>
+    <t>77_20171021</t>
   </si>
 </sst>
 </file>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G3"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -415,16 +415,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <v>43025</v>
+        <v>43029</v>
       </c>
       <c r="E1" s="2">
-        <v>0.26244212962962959</v>
+        <v>0.1373263888888889</v>
       </c>
       <c r="F1" s="2">
-        <v>0.34334490740740736</v>
+        <v>0.27370370370370373</v>
       </c>
       <c r="G1">
-        <v>17.293900000000001</v>
+        <v>17.598800000000001</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -438,16 +438,16 @@
         <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>43025</v>
+        <v>43029</v>
       </c>
       <c r="E2" s="2">
-        <v>0.34346064814814814</v>
+        <v>0.26519675925925928</v>
       </c>
       <c r="F2" s="2">
-        <v>0.37702546296296297</v>
+        <v>0.29789351851851853</v>
       </c>
       <c r="G2">
-        <v>8.5679999999999996</v>
+        <v>4.7892999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -461,16 +461,16 @@
         <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>43025</v>
+        <v>43029</v>
       </c>
       <c r="E3" s="2">
-        <v>0.37714120370370369</v>
+        <v>0.3024074074074074</v>
       </c>
       <c r="F3" s="2">
-        <v>0.84871527777777767</v>
+        <v>0.41158564814814813</v>
       </c>
       <c r="G3">
-        <v>106.64490000000001</v>
+        <v>15.6797</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -484,16 +484,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="1">
-        <v>43025</v>
+        <v>43029</v>
       </c>
       <c r="E4" s="2">
-        <v>0.6256828703703704</v>
+        <v>0.55806712962962968</v>
       </c>
       <c r="F4" s="2">
-        <v>0.63980324074074069</v>
+        <v>0.68575231481481491</v>
       </c>
       <c r="G4">
-        <v>1.8714</v>
+        <v>13.738</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -507,16 +507,16 @@
         <v>5</v>
       </c>
       <c r="D5" s="1">
-        <v>43025</v>
+        <v>43029</v>
       </c>
       <c r="E5" s="2">
-        <v>0.64072916666666668</v>
+        <v>0.68633101851851841</v>
       </c>
       <c r="F5" s="2">
-        <v>0.66457175925925926</v>
+        <v>0.76484953703703706</v>
       </c>
       <c r="G5">
-        <v>5.8737000000000004</v>
+        <v>11.922599999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -530,16 +530,16 @@
         <v>6</v>
       </c>
       <c r="D6" s="1">
-        <v>43025</v>
+        <v>43029</v>
       </c>
       <c r="E6" s="2">
-        <v>0.61121527777777784</v>
+        <v>0.76531249999999995</v>
       </c>
       <c r="F6" s="2">
-        <v>0.64038194444444441</v>
+        <v>0.96425925925925926</v>
       </c>
       <c r="G6">
-        <v>4.4184000000000001</v>
+        <v>21.299199999999999</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -553,154 +553,16 @@
         <v>7</v>
       </c>
       <c r="D7" s="1">
-        <v>43025</v>
+        <v>43029</v>
       </c>
       <c r="E7" s="2">
-        <v>0.56885416666666666</v>
+        <v>0.41204861111111107</v>
       </c>
       <c r="F7" s="2">
-        <v>0.59813657407407406</v>
+        <v>0.5513541666666667</v>
       </c>
       <c r="G7">
-        <v>6.8737000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43025</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.34346064814814814</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.36440972222222223</v>
-      </c>
-      <c r="G8">
-        <v>0.97433999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
-        <v>43025</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.4519097222222222</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.46221064814814811</v>
-      </c>
-      <c r="G9">
-        <v>1.3310999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43025</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.5367939814814815</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0.56781249999999994</v>
-      </c>
-      <c r="G10">
-        <v>4.2019000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43025</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.46741898148148148</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.51804398148148145</v>
-      </c>
-      <c r="G11">
-        <v>4.1189999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43025</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.80936342592592592</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0.82140046296296287</v>
-      </c>
-      <c r="G12">
-        <v>1.6878</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43025</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.8356365740740741</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0.84848379629629633</v>
-      </c>
-      <c r="G13">
-        <v>1.6878</v>
+        <v>19.157800000000002</v>
       </c>
     </row>
   </sheetData>
